--- a/PatchExtractionPy/PatchExtParams.xlsx
+++ b/PatchExtractionPy/PatchExtParams.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Desktop\GBM_Project\Experiments\GBM_scripts\PatchExtractionPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CurrentExp" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="HBPatchExt" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>region</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CT</t>
-  </si>
-  <si>
-    <t>NE</t>
   </si>
   <si>
     <t>HB</t>
@@ -377,8 +374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,10 +456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,93 +489,24 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="C2">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="D2">
-        <v>448</v>
+        <v>3000</v>
       </c>
       <c r="E2">
-        <v>448</v>
+        <v>3000</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>448</v>
-      </c>
-      <c r="E3">
-        <v>448</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>208</v>
-      </c>
-      <c r="D4">
-        <v>448</v>
-      </c>
-      <c r="E4">
-        <v>448</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>255</v>
-      </c>
-      <c r="C5">
-        <v>102</v>
-      </c>
-      <c r="D5">
-        <v>448</v>
-      </c>
-      <c r="E5">
-        <v>448</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
         <v>0.51</v>
       </c>
     </row>

--- a/PatchExtractionPy/PatchExtParams.xlsx
+++ b/PatchExtractionPy/PatchExtParams.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CurrentExp" sheetId="2" r:id="rId1"/>
     <sheet name="HBPatchExt" sheetId="1" r:id="rId2"/>
+    <sheet name="PCPatch" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
   <si>
     <t>region</t>
   </si>
@@ -90,8 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,4 +517,65 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>208</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PatchExtractionPy/PatchExtParams.xlsx
+++ b/PatchExtractionPy/PatchExtParams.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="CurrentExp" sheetId="2" r:id="rId1"/>
@@ -378,7 +378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
@@ -523,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/PatchExtractionPy/PatchExtParams.xlsx
+++ b/PatchExtractionPy/PatchExtParams.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CurrentExp" sheetId="2" r:id="rId1"/>
     <sheet name="HBPatchExt" sheetId="1" r:id="rId2"/>
     <sheet name="PCPatch" sheetId="3" r:id="rId3"/>
+    <sheet name="Channels" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>region</t>
   </si>
@@ -56,14 +57,28 @@
   </si>
   <si>
     <t>HB</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>MV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,9 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -378,7 +396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
@@ -463,7 +481,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +542,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,13 +584,91 @@
         <v>2000</v>
       </c>
       <c r="E2" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
         <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>255</v>
+      </c>
+      <c r="C3" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>255</v>
+      </c>
+      <c r="C7" s="1">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/PatchExtractionPy/PatchExtParams.xlsx
+++ b/PatchExtractionPy/PatchExtParams.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CurrentExp" sheetId="2" r:id="rId1"/>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,8 +580,8 @@
       <c r="C2">
         <v>208</v>
       </c>
-      <c r="D2">
-        <v>2000</v>
+      <c r="D2" s="1">
+        <v>1000</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
@@ -590,7 +590,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PatchExtractionPy/PatchExtParams.xlsx
+++ b/PatchExtractionPy/PatchExtParams.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/PatchExtractionPy/PatchExtParams.xlsx
+++ b/PatchExtractionPy/PatchExtParams.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,13 +581,13 @@
         <v>208</v>
       </c>
       <c r="D2" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>0.25</v>
